--- a/Layout.xlsx
+++ b/Layout.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\2017 Spring\CSCI 306\Clue\Layout\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\adit\My Documents\CSCI306\ClueGameMKJW\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="37">
   <si>
     <t>M</t>
   </si>
@@ -108,6 +108,33 @@
   </si>
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>KN</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>NN</t>
+  </si>
+  <si>
+    <t>LN</t>
+  </si>
+  <si>
+    <t>DN</t>
+  </si>
+  <si>
+    <t>SN</t>
   </si>
 </sst>
 </file>
@@ -513,7 +540,7 @@
   <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,7 +724,7 @@
         <v>7</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>7</v>
@@ -718,7 +745,7 @@
         <v>27</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>15</v>
@@ -742,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -1069,7 +1096,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>2</v>
@@ -1252,7 +1279,7 @@
         <v>13</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>13</v>
@@ -1600,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
@@ -1633,7 +1660,7 @@
         <v>27</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>11</v>
@@ -1648,7 +1675,7 @@
         <v>27</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>16</v>
@@ -1687,7 +1714,7 @@
         <v>9</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>9</v>
